--- a/data/SNAPsummary-3.xlsx
+++ b/data/SNAPsummary-3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Documents\Stewart-Alberto-Mohamed-2022-EDA-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5122B7FE-005A-4A3D-A63D-A651AB87F32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C84D874-6AAD-43E5-AA54-8D5CD4C39C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="16240" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Supplemental Nutrition Assistance Program Participation and Costs</t>
   </si>
@@ -95,21 +95,6 @@
     <t>     ----------Millions of Dollars----------</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1982 </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3]</t>
-    </r>
-  </si>
-  <si>
     <t>1989</t>
   </si>
   <si>
@@ -225,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,13 +234,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -389,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -437,10 +415,7 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -452,7 +427,7 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -461,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -481,6 +456,12 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,38 +746,38 @@
   <dimension ref="A1:F208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+      <selection activeCell="A7" sqref="A7:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" style="19" customWidth="1"/>
-    <col min="3" max="5" width="15.26953125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" style="18" customWidth="1"/>
+    <col min="3" max="5" width="15.26953125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" style="20" customWidth="1"/>
     <col min="7" max="7" width="9.1796875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -805,13 +786,13 @@
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -821,9 +802,9 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="30"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="30"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
@@ -833,11 +814,11 @@
       <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="11" t="s">
         <v>8</v>
       </c>
@@ -852,14 +833,14 @@
       <c r="C6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+      <c r="A7" s="33">
         <v>1969</v>
       </c>
       <c r="B7" s="15">
@@ -879,7 +860,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
+      <c r="A8" s="33">
         <v>1970</v>
       </c>
       <c r="B8" s="15">
@@ -899,7 +880,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+      <c r="A9" s="33">
         <v>1971</v>
       </c>
       <c r="B9" s="15">
@@ -919,7 +900,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
+      <c r="A10" s="33">
         <v>1972</v>
       </c>
       <c r="B10" s="15">
@@ -939,7 +920,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
+      <c r="A11" s="33">
         <v>1973</v>
       </c>
       <c r="B11" s="15">
@@ -959,7 +940,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
+      <c r="A12" s="33">
         <v>1974</v>
       </c>
       <c r="B12" s="15">
@@ -979,7 +960,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
+      <c r="A13" s="33">
         <v>1975</v>
       </c>
       <c r="B13" s="15">
@@ -999,7 +980,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
+      <c r="A14" s="33">
         <v>1976</v>
       </c>
       <c r="B14" s="15">
@@ -1019,7 +1000,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
+      <c r="A15" s="33">
         <v>1977</v>
       </c>
       <c r="B15" s="15">
@@ -1039,7 +1020,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
+      <c r="A16" s="33">
         <v>1978</v>
       </c>
       <c r="B16" s="15">
@@ -1059,7 +1040,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
+      <c r="A17" s="33">
         <v>1979</v>
       </c>
       <c r="B17" s="15">
@@ -1079,7 +1060,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
+      <c r="A18" s="33">
         <v>1980</v>
       </c>
       <c r="B18" s="15">
@@ -1099,7 +1080,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
+      <c r="A19" s="33">
         <v>1981</v>
       </c>
       <c r="B19" s="15">
@@ -1118,9 +1099,9 @@
         <v>11225.2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
-        <v>12</v>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="33">
+        <v>1982</v>
       </c>
       <c r="B20" s="15">
         <v>21717</v>
@@ -1139,7 +1120,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
+      <c r="A21" s="33">
         <v>1983</v>
       </c>
       <c r="B21" s="15">
@@ -1159,7 +1140,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="17">
+      <c r="A22" s="34">
         <v>1984</v>
       </c>
       <c r="B22" s="15">
@@ -1179,7 +1160,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
+      <c r="A23" s="33">
         <v>1985</v>
       </c>
       <c r="B23" s="15">
@@ -1199,7 +1180,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
+      <c r="A24" s="33">
         <v>1986</v>
       </c>
       <c r="B24" s="15">
@@ -1219,7 +1200,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
+      <c r="A25" s="33">
         <v>1987</v>
       </c>
       <c r="B25" s="15">
@@ -1239,7 +1220,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="12">
+      <c r="A26" s="33">
         <v>1988</v>
       </c>
       <c r="B26" s="15">
@@ -1259,8 +1240,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
-        <v>13</v>
+      <c r="A27" s="33" t="s">
+        <v>12</v>
       </c>
       <c r="B27" s="15">
         <v>18806.4634167</v>
@@ -1279,8 +1260,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
-        <v>14</v>
+      <c r="A28" s="33" t="s">
+        <v>13</v>
       </c>
       <c r="B28" s="15">
         <v>20048.977583299999</v>
@@ -1299,8 +1280,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
-        <v>15</v>
+      <c r="A29" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="B29" s="15">
         <v>22624.627</v>
@@ -1319,8 +1300,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
-        <v>16</v>
+      <c r="A30" s="33" t="s">
+        <v>15</v>
       </c>
       <c r="B30" s="15">
         <v>25406.985416700001</v>
@@ -1339,8 +1320,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
-        <v>17</v>
+      <c r="A31" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="B31" s="15">
         <v>26986.7745</v>
@@ -1359,8 +1340,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
-        <v>18</v>
+      <c r="A32" s="33" t="s">
+        <v>17</v>
       </c>
       <c r="B32" s="15">
         <v>27473.696333299999</v>
@@ -1379,8 +1360,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
-        <v>19</v>
+      <c r="A33" s="33" t="s">
+        <v>18</v>
       </c>
       <c r="B33" s="15">
         <v>26618.772833299998</v>
@@ -1399,8 +1380,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="12" t="s">
-        <v>20</v>
+      <c r="A34" s="33" t="s">
+        <v>19</v>
       </c>
       <c r="B34" s="15">
         <v>25542.531166700002</v>
@@ -1419,8 +1400,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="12" t="s">
-        <v>21</v>
+      <c r="A35" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="B35" s="15">
         <v>22858.136500000001</v>
@@ -1439,8 +1420,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
-        <v>22</v>
+      <c r="A36" s="33" t="s">
+        <v>21</v>
       </c>
       <c r="B36" s="15">
         <v>19790.984499999999</v>
@@ -1459,8 +1440,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
-        <v>23</v>
+      <c r="A37" s="33" t="s">
+        <v>22</v>
       </c>
       <c r="B37" s="15">
         <v>18182.537916700003</v>
@@ -1479,8 +1460,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
-        <v>24</v>
+      <c r="A38" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="B38" s="15">
         <v>17194.334333299998</v>
@@ -1499,8 +1480,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
-        <v>25</v>
+      <c r="A39" s="33" t="s">
+        <v>24</v>
       </c>
       <c r="B39" s="15">
         <v>17318.4580833</v>
@@ -1519,8 +1500,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
-        <v>26</v>
+      <c r="A40" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="B40" s="15">
         <v>19095.6366667</v>
@@ -1539,8 +1520,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
-        <v>27</v>
+      <c r="A41" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="B41" s="15">
         <v>21249.625833299997</v>
@@ -1559,8 +1540,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
-        <v>28</v>
+      <c r="A42" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="B42" s="15">
         <v>23810.741999999998</v>
@@ -1579,8 +1560,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
-        <v>29</v>
+      <c r="A43" s="33" t="s">
+        <v>28</v>
       </c>
       <c r="B43" s="15">
         <v>25628.4560833</v>
@@ -1599,8 +1580,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
-        <v>30</v>
+      <c r="A44" s="33" t="s">
+        <v>29</v>
       </c>
       <c r="B44" s="15">
         <v>26548.833166700002</v>
@@ -1619,8 +1600,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
-        <v>31</v>
+      <c r="A45" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="B45" s="15">
         <v>26316.044583299998</v>
@@ -1639,8 +1620,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="12" t="s">
-        <v>32</v>
+      <c r="A46" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="B46" s="15">
         <v>28222.630249999998</v>
@@ -1659,8 +1640,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="12" t="s">
-        <v>33</v>
+      <c r="A47" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="B47" s="15">
         <v>33489.974499999997</v>
@@ -1679,8 +1660,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="12" t="s">
-        <v>34</v>
+      <c r="A48" s="33" t="s">
+        <v>33</v>
       </c>
       <c r="B48" s="15">
         <v>40301.877999999997</v>
@@ -1699,8 +1680,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="12" t="s">
-        <v>35</v>
+      <c r="A49" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="B49" s="15">
         <v>44708.726083300004</v>
@@ -1719,8 +1700,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
-        <v>36</v>
+      <c r="A50" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="B50" s="15">
         <v>46609.071499999998</v>
@@ -1739,8 +1720,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
-        <v>37</v>
+      <c r="A51" s="33" t="s">
+        <v>36</v>
       </c>
       <c r="B51" s="15">
         <v>47636.0898333</v>
@@ -1759,8 +1740,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="12" t="s">
-        <v>38</v>
+      <c r="A52" s="33" t="s">
+        <v>37</v>
       </c>
       <c r="B52" s="15">
         <v>46663.872416699996</v>
@@ -1779,8 +1760,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="12" t="s">
-        <v>39</v>
+      <c r="A53" s="33" t="s">
+        <v>38</v>
       </c>
       <c r="B53" s="15">
         <v>45766.6716667</v>
@@ -1799,8 +1780,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="12" t="s">
-        <v>40</v>
+      <c r="A54" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="B54" s="15">
         <v>44219.655749999998</v>
@@ -1819,8 +1800,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="12" t="s">
-        <v>41</v>
+      <c r="A55" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="B55" s="15">
         <v>42316.55025</v>
@@ -1839,8 +1820,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="12" t="s">
-        <v>42</v>
+      <c r="A56" s="33" t="s">
+        <v>41</v>
       </c>
       <c r="B56" s="15">
         <v>40775.7053333</v>
@@ -1859,8 +1840,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="12" t="s">
-        <v>43</v>
+      <c r="A57" s="33" t="s">
+        <v>42</v>
       </c>
       <c r="B57" s="15">
         <v>35702.472166699998</v>
@@ -1879,8 +1860,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
-        <v>44</v>
+      <c r="A58" s="33" t="s">
+        <v>43</v>
       </c>
       <c r="B58" s="15">
         <v>39878.68475</v>
@@ -1899,8 +1880,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="12" t="s">
-        <v>45</v>
+      <c r="A59" s="33" t="s">
+        <v>44</v>
       </c>
       <c r="B59" s="15">
         <v>41500.020499999999</v>
@@ -1919,79 +1900,79 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-    </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="24" t="s">
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+    </row>
+    <row r="64" spans="1:6" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-    </row>
-    <row r="64" spans="1:6" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="27" t="s">
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+    </row>
+    <row r="66" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-    </row>
-    <row r="66" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A208" s="18"/>
+      <c r="A208" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="13">
